--- a/medicine/Enfance/Georges_Lemoine_(illustrateur)/Georges_Lemoine_(illustrateur).xlsx
+++ b/medicine/Enfance/Georges_Lemoine_(illustrateur)/Georges_Lemoine_(illustrateur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Lemoine, né le 14 juin 1935 à Rouen, est un illustrateur français de livres pour la jeunesse, dessinateur et auteur d'ouvrages sur des lieux emblématiques de villes.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Lemoine s'installe avec ses parents à Paris en 1946, Il étudie à l'école des beaux-arts de Rabat lors de son service militaire, puis auprès de Marcel Jacno[1]. Il travaille ensuite pour Étienne Delessert et Robert Massin, qui le fait entrer dans le département d'illustration pour la jeunesse des Éditions Gallimard[1]. Il y réalise les illustrations du premier numéro de la collection « folio junior »[2].
-Il a illustré les textes de nombreux grands écrivains[2]. Il est connu pour ses dessins poétiques et sensibles au crayon et à l'aquarelle, aux couleurs douces et à la luminosité recherchée[3].
-En 1988, il reçoit le prix international Prix BolognaRagazzi catégorie Premio Grafico Fiera di Bologna per la Giuventù[4] de la Foire du livre de jeunesse de Bologne  pour Le livre de la création, qu'il a illustré, sur un texte de Pierre-Marie Beaude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Lemoine s'installe avec ses parents à Paris en 1946, Il étudie à l'école des beaux-arts de Rabat lors de son service militaire, puis auprès de Marcel Jacno. Il travaille ensuite pour Étienne Delessert et Robert Massin, qui le fait entrer dans le département d'illustration pour la jeunesse des Éditions Gallimard. Il y réalise les illustrations du premier numéro de la collection « folio junior ».
+Il a illustré les textes de nombreux grands écrivains. Il est connu pour ses dessins poétiques et sensibles au crayon et à l'aquarelle, aux couleurs douces et à la luminosité recherchée.
+En 1988, il reçoit le prix international Prix BolognaRagazzi catégorie Premio Grafico Fiera di Bologna per la Giuventù de la Foire du livre de jeunesse de Bologne  pour Le livre de la création, qu'il a illustré, sur un texte de Pierre-Marie Beaude.
 Il est membre correspondant de l'Académie des sciences, belles-lettres et arts de Rouen.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Ouvrages illustrés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Maison qui s'envole, Claude Roy, Gallimard, 1977.
 L'Enfant et la Rivière, Henri Bosco, Gallimard, 1977.
@@ -615,11 +631,13 @@
           <t>Quelques prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1988 :  Prix BolognaRagazzi catégorie Premio Grafico Fiera di Bologna per la Giuventù[4], Foire du livre de jeunesse de Bologne  pour Le livre de la création, qu'il a illustré, sur un texte de Pierre-Marie Beaude.
-1989 : Prix Saint-Exupéry[5] pour Mozart, qu'il a illustré, sur un texte de Christophe Gallaz
-1990 : (international) « Honour List »[6] de l' IBBY, Catégorie Auteur, pour Mozart, texte de Christophe Gallaz, qu'il a illustré</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1988 :  Prix BolognaRagazzi catégorie Premio Grafico Fiera di Bologna per la Giuventù, Foire du livre de jeunesse de Bologne  pour Le livre de la création, qu'il a illustré, sur un texte de Pierre-Marie Beaude.
+1989 : Prix Saint-Exupéry pour Mozart, qu'il a illustré, sur un texte de Christophe Gallaz
+1990 : (international) « Honour List » de l' IBBY, Catégorie Auteur, pour Mozart, texte de Christophe Gallaz, qu'il a illustré</t>
         </is>
       </c>
     </row>
@@ -647,9 +665,11 @@
           <t>Illustrations originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains de ses dessins originaux sont présents dans le fonds du Musée de l'illustration jeunesse de Moulins, dont des donations faites par Georges Lemoine ; par exemple, les illustrations de l'ouvrage Balaabilou, sur un texte de Jean-Marie Gustave Le Clézio, publié aux éditions Gallimard en 1985[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains de ses dessins originaux sont présents dans le fonds du Musée de l'illustration jeunesse de Moulins, dont des donations faites par Georges Lemoine ; par exemple, les illustrations de l'ouvrage Balaabilou, sur un texte de Jean-Marie Gustave Le Clézio, publié aux éditions Gallimard en 1985.
 </t>
         </is>
       </c>
